--- a/data/trans_orig/dukeAFECT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,41; 17,98</t>
+          <t>17,38; 17,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,69; 18,22</t>
+          <t>17,68; 18,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,32; 17,82</t>
+          <t>17,32; 17,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,78; 18,24</t>
+          <t>17,74; 18,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 18,14</t>
+          <t>17,43; 18,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,78; 18,35</t>
+          <t>17,75; 18,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,79</t>
+          <t>17,27; 17,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,16; 18,54</t>
+          <t>18,16; 18,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 17,94</t>
+          <t>17,46; 17,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,82; 18,21</t>
+          <t>17,83; 18,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,36; 17,72</t>
+          <t>17,39; 17,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,01; 18,32</t>
+          <t>18,03; 18,33</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 18,02</t>
+          <t>17,4; 18,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 18,19</t>
+          <t>17,69; 18,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,76</t>
+          <t>17,27; 17,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,42; 17,92</t>
+          <t>17,41; 17,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 17,97</t>
+          <t>17,41; 17,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 17,92</t>
+          <t>17,3; 17,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,75</t>
+          <t>17,22; 17,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,04</t>
+          <t>17,56; 18,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,51; 17,92</t>
+          <t>17,52; 17,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 18,01</t>
+          <t>17,6; 18,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,33; 17,7</t>
+          <t>17,32; 17,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 17,93</t>
+          <t>17,55; 17,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,11; 17,61</t>
+          <t>17,13; 17,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 18,16</t>
+          <t>17,79; 18,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,25</t>
+          <t>16,8; 17,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,55; 19,41</t>
+          <t>17,55; 19,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,72</t>
+          <t>16,74; 17,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,1</t>
+          <t>17,5; 18,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,05; 17,16</t>
+          <t>16,0; 17,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,97</t>
+          <t>17,27; 17,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,55</t>
+          <t>17,1; 17,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 18,1</t>
+          <t>17,76; 18,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,18</t>
+          <t>16,7; 17,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 19,38</t>
+          <t>17,58; 19,31</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 17,57</t>
+          <t>17,24; 17,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 17,73</t>
+          <t>17,4; 17,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,25</t>
+          <t>16,94; 17,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,68</t>
+          <t>17,32; 17,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,87; 17,34</t>
+          <t>16,86; 17,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,62</t>
+          <t>17,19; 17,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,26</t>
+          <t>16,88; 17,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 17,65</t>
+          <t>15,99; 17,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 17,42</t>
+          <t>17,17; 17,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,63</t>
+          <t>17,37; 17,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 17,2</t>
+          <t>16,95; 17,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,59</t>
+          <t>16,59; 17,59</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,44</t>
+          <t>16,74; 17,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 17,73</t>
+          <t>17,33; 17,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,03</t>
+          <t>16,59; 17,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,04</t>
+          <t>16,35; 17,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,51; 17,11</t>
+          <t>16,5; 17,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,46</t>
+          <t>17,05; 17,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 16,89</t>
+          <t>16,49; 16,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,8</t>
+          <t>16,69; 17,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,14</t>
+          <t>16,68; 17,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,52</t>
+          <t>17,24; 17,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,59; 16,9</t>
+          <t>16,59; 16,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,67; 17,55</t>
+          <t>16,67; 17,48</t>
         </is>
       </c>
     </row>
@@ -1424,37 +1424,37 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,26; 18,7</t>
+          <t>18,24; 18,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,1; 18,59</t>
+          <t>18,07; 18,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,53; 18,03</t>
+          <t>17,54; 18,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,47; 19,17</t>
+          <t>18,43; 19,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,28</t>
+          <t>16,88; 17,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,46; 17,78</t>
+          <t>17,45; 17,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,77; 17,11</t>
+          <t>16,77; 17,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,5</t>
+          <t>17,18; 17,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,6; 17,89</t>
+          <t>17,62; 17,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,28</t>
+          <t>16,96; 17,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,48; 17,84</t>
+          <t>17,46; 17,86</t>
         </is>
       </c>
     </row>
@@ -1564,42 +1564,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,44; 17,66</t>
+          <t>17,44; 17,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,71; 17,89</t>
+          <t>17,71; 17,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,09; 17,28</t>
+          <t>17,11; 17,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,56; 18,24</t>
+          <t>17,58; 18,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,31</t>
+          <t>17,07; 17,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,46; 17,63</t>
+          <t>17,45; 17,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,12</t>
+          <t>16,92; 17,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,58</t>
+          <t>16,95; 17,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,36; 17,83</t>
+          <t>17,37; 17,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/dukeAFECT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
